--- a/controller/src/main/resources/jxls_templates/BPshetongji.xlsx
+++ b/controller/src/main/resources/jxls_templates/BPshetongji.xlsx
@@ -61,11 +61,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -89,6 +89,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -98,9 +151,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -112,22 +179,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -136,7 +204,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,7 +212,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,95 +220,27 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,13 +267,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,169 +429,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,17 +516,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,6 +555,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -576,21 +596,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -599,132 +604,121 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -733,28 +727,28 @@
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1464,13 +1458,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AV3"/>
+  <dimension ref="A1:AV4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelRow="3"/>
   <cols>
     <col min="3" max="3" width="30.6923076923077" customWidth="1"/>
   </cols>
@@ -1483,144 +1477,150 @@
       <c r="AO1" s="12"/>
       <c r="AP1" s="12"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="4:48">
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="7" t="s">
+    <row r="2" s="1" customFormat="1" ht="17.5" hidden="1" spans="1:42">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="20" customHeight="1" spans="4:48">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="7" t="s">
         <v>1</v>
-      </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="13"/>
-      <c r="AS2" s="13"/>
-      <c r="AT2" s="13"/>
-      <c r="AU2" s="13"/>
-      <c r="AV2" s="13"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="26" spans="2:48">
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10"/>
-      <c r="AK3" s="10"/>
-      <c r="AL3" s="10"/>
-      <c r="AM3" s="10"/>
-      <c r="AN3" s="10"/>
-      <c r="AO3" s="10"/>
-      <c r="AP3" s="10"/>
-      <c r="AQ3" s="14"/>
-      <c r="AR3" s="14"/>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="14"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="13"/>
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="13"/>
+      <c r="AV3" s="13"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="26" spans="2:48">
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="14"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="14"/>
+      <c r="AV4" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AN2:AP2"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/controller/src/main/resources/jxls_templates/BPshetongji.xlsx
+++ b/controller/src/main/resources/jxls_templates/BPshetongji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="作業工数・費用の統計" sheetId="1" r:id="rId1"/>
@@ -61,11 +61,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yy&quot;年&quot;m&quot;月&quot;"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -89,6 +89,119 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -97,18 +210,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,120 +234,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,19 +267,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,157 +429,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,6 +517,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -540,17 +570,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,186 +604,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1134,10 +1134,10 @@
   <sheetPr/>
   <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelRow="2"/>
@@ -1300,7 +1300,7 @@
   <dimension ref="A1:AP3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelRow="2"/>
@@ -1460,8 +1460,8 @@
   <sheetPr/>
   <dimension ref="A1:AV4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelRow="3"/>

--- a/controller/src/main/resources/jxls_templates/BPshetongji.xlsx
+++ b/controller/src/main/resources/jxls_templates/BPshetongji.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Newtouch\SVN\07_P_FANS\05Dev\01Source\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="14">
   <si>
     <t>■作業工数・費用の統計</t>
   </si>
@@ -59,6 +59,18 @@
   <si>
     <t>構内
 人数</t>
+  </si>
+  <si>
+    <t>预提</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>费用</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -68,11 +80,11 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yy&quot;年&quot;m&quot;月&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -86,15 +98,23 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <charset val="134"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -189,7 +209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -221,13 +241,19 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -250,8 +276,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準_BP情報一覧 " xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -524,161 +550,398 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="30.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" ht="24">
+    <row r="1" spans="1:56" s="1" customFormat="1" ht="18">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
+      <c r="BD1" s="10"/>
     </row>
-    <row r="2" spans="1:30" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:56" ht="20.100000000000001" customHeight="1">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="15"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="15"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="16"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="19"/>
       <c r="M2" s="16"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="15"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="19"/>
       <c r="Q2" s="16"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="15"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="19"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="15"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="19"/>
       <c r="Y2" s="16"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="17"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="17"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="16"/>
+      <c r="AU2" s="17"/>
+      <c r="AV2" s="19"/>
+      <c r="AW2" s="16"/>
+      <c r="AX2" s="16"/>
+      <c r="AY2" s="17"/>
+      <c r="AZ2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA2" s="16"/>
+      <c r="BB2" s="16"/>
+      <c r="BC2" s="17"/>
     </row>
-    <row r="3" spans="1:30" ht="27">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:56" ht="20.100000000000001" customHeight="1">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="17"/>
+      <c r="L3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="17"/>
+      <c r="N3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="17"/>
+      <c r="P3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="17"/>
+      <c r="T3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" s="17"/>
+      <c r="V3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="17"/>
+      <c r="X3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK3" s="17"/>
+      <c r="AL3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM3" s="17"/>
+      <c r="AN3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO3" s="17"/>
+      <c r="AP3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ3" s="17"/>
+      <c r="AR3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS3" s="17"/>
+      <c r="AT3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU3" s="17"/>
+      <c r="AV3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW3" s="17"/>
+      <c r="AX3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY3" s="17"/>
+      <c r="AZ3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA3" s="17"/>
+      <c r="BB3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC3" s="17"/>
+    </row>
+    <row r="4" spans="1:56" ht="27">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="R3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="T3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="V3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="W3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="X3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC3" s="14" t="s">
+      <c r="D4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="X4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC4" s="14" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
+  <mergeCells count="39">
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="AZ2:BC2"/>
+    <mergeCell ref="AZ3:BA3"/>
+    <mergeCell ref="BB3:BC3"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="AV2:AY2"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="AV3:AW3"/>
+    <mergeCell ref="AX3:AY3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -694,14 +957,14 @@
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="30.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="1" customFormat="1" ht="24">
+    <row r="1" spans="1:42" s="1" customFormat="1" ht="18">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -710,34 +973,34 @@
       <c r="AP1" s="10"/>
     </row>
     <row r="2" spans="1:42" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="20" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="21"/>
+      <c r="AC2" s="23"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
     </row>
@@ -857,14 +1120,14 @@
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="30.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="1" customFormat="1" ht="24">
+    <row r="1" spans="1:48" s="1" customFormat="1" ht="18">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -872,7 +1135,7 @@
       <c r="AO1" s="10"/>
       <c r="AP1" s="10"/>
     </row>
-    <row r="2" spans="1:48" s="1" customFormat="1" ht="24" hidden="1">
+    <row r="2" spans="1:48" s="1" customFormat="1" ht="18" hidden="1">
       <c r="A2" s="3"/>
       <c r="AO2" s="10"/>
       <c r="AP2" s="10"/>
@@ -895,30 +1158,30 @@
       </c>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="23"/>
-      <c r="AO3" s="23"/>
-      <c r="AP3" s="23"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="25"/>
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="25"/>
       <c r="AQ3" s="11"/>
       <c r="AR3" s="11"/>
       <c r="AS3" s="11"/>

--- a/controller/src/main/resources/jxls_templates/BPshetongji.xlsx
+++ b/controller/src/main/resources/jxls_templates/BPshetongji.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PFANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC5FE94-D0B6-4086-8B9B-EDC573DFC1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7140" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="作業工数・費用の統計" sheetId="1" r:id="rId1"/>
@@ -61,22 +62,22 @@
 人数</t>
   </si>
   <si>
-    <t>预提</t>
+    <t>合計</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>费用</t>
+    <t>委任</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>合計</t>
+    <t>请负</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yy&quot;年&quot;m&quot;月&quot;"/>
   </numFmts>
@@ -244,16 +245,16 @@
     <xf numFmtId="176" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -276,7 +277,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="標準_BP情報一覧 " xfId="1"/>
+    <cellStyle name="標準_BP情報一覧 " xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -549,12 +550,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="topRight" activeCell="BB3" sqref="BB3:BC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -574,168 +575,168 @@
     <row r="2" spans="1:56" ht="20.100000000000001" customHeight="1">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="16"/>
-      <c r="AT2" s="16"/>
-      <c r="AU2" s="17"/>
-      <c r="AV2" s="19"/>
-      <c r="AW2" s="16"/>
-      <c r="AX2" s="16"/>
-      <c r="AY2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="18"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="16"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="19"/>
+      <c r="AX2" s="19"/>
+      <c r="AY2" s="16"/>
       <c r="AZ2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="BA2" s="16"/>
-      <c r="BB2" s="16"/>
-      <c r="BC2" s="17"/>
+        <v>11</v>
+      </c>
+      <c r="BA2" s="19"/>
+      <c r="BB2" s="19"/>
+      <c r="BC2" s="16"/>
     </row>
     <row r="3" spans="1:56" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="17"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="16"/>
       <c r="H3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="17"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="16"/>
       <c r="L3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="17"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="16"/>
       <c r="P3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="17"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" s="16"/>
       <c r="T3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="U3" s="17"/>
-      <c r="V3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="17"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="W3" s="16"/>
       <c r="X3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AA3" s="17"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA3" s="16"/>
       <c r="AB3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AE3" s="17"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE3" s="16"/>
       <c r="AF3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AI3" s="17"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI3" s="16"/>
       <c r="AJ3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK3" s="17"/>
-      <c r="AL3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AM3" s="17"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM3" s="16"/>
       <c r="AN3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO3" s="17"/>
-      <c r="AP3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AQ3" s="17"/>
+      <c r="AO3" s="16"/>
+      <c r="AP3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ3" s="16"/>
       <c r="AR3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS3" s="17"/>
-      <c r="AT3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AU3" s="17"/>
+      <c r="AS3" s="16"/>
+      <c r="AT3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU3" s="16"/>
       <c r="AV3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW3" s="17"/>
-      <c r="AX3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AY3" s="17"/>
+      <c r="AW3" s="16"/>
+      <c r="AX3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY3" s="16"/>
       <c r="AZ3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="BA3" s="17"/>
-      <c r="BB3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="BC3" s="17"/>
+      <c r="BA3" s="16"/>
+      <c r="BB3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="BC3" s="16"/>
     </row>
     <row r="4" spans="1:56" ht="27">
       <c r="B4" s="5" t="s">
@@ -903,21 +904,18 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AZ2:BC2"/>
+    <mergeCell ref="AZ3:BA3"/>
+    <mergeCell ref="BB3:BC3"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="AV2:AY2"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="AV3:AW3"/>
+    <mergeCell ref="AX3:AY3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H2:K2"/>
@@ -930,18 +928,21 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="D2:G2"/>
-    <mergeCell ref="AZ2:BC2"/>
-    <mergeCell ref="AZ3:BA3"/>
-    <mergeCell ref="BB3:BC3"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="AV2:AY2"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="AV3:AW3"/>
-    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -949,7 +950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AP3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1092,11 +1093,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AB2:AC2"/>
@@ -1105,6 +1101,11 @@
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1112,7 +1113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AV4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
